--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_05_Jedi_d2.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_05_Jedi_d2.xlsx
@@ -25,18 +25,18 @@
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="371">
   <si>
     <t>project_id</t>
   </si>
@@ -861,15 +861,9 @@
     <t>repository =http://lsh-tmp/radiant/trunk/silicon/00_basic</t>
   </si>
   <si>
-    <t>PNMAIN_ENABLE_BITGEN=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmd = python DEV/bin/run_radiant.py  --run-map-trce  --run-par-trce  </t>
   </si>
   <si>
-    <t>radiant=ng2_3</t>
-  </si>
-  <si>
     <t>=primitive</t>
   </si>
   <si>
@@ -903,9 +897,6 @@
     <t>00_primitive/00_common/09_FD1P3JX</t>
   </si>
   <si>
-    <t>00_primitive/00_common/10_FL1P3AZ</t>
-  </si>
-  <si>
     <t>00_primitive/00_common/11_IFD1P3BX</t>
   </si>
   <si>
@@ -1182,10 +1173,13 @@
     <t>Quin.Xu</t>
   </si>
   <si>
-    <t>silicon_05_Jedi_d2_v2.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmd =   --check-conf=sim.conf,impl.conf --check-smart --sim-rtl   --synthesis=lse </t>
+  </si>
+  <si>
+    <t>silicon_05_Jedi_d2_v2.01</t>
+  </si>
+  <si>
+    <t>radiant=ng3_0</t>
   </si>
 </sst>
 </file>
@@ -2488,64 +2482,31 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,7 +2518,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2577,17 +2544,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5090,7 +5084,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8F6643E-1ACF-40C0-BD62-387FC6EAD419}" diskRevisions="1" revisionId="2381" version="24">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E1DC598-53B8-4C47-93B8-973918095140}" diskRevisions="1" revisionId="2475" version="28">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5283,6 +5277,38 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{71A639E6-4ABE-4112-B77E-27327221FAB7}" dateTime="2021-05-06T13:46:41" maxSheetId="5" userName="Jason Wang" r:id="rId25" minRId="2382" maxRId="2383">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A1ABD512-E7E6-4026-B7BD-BC28DAB10DAD}" dateTime="2021-05-06T13:46:56" maxSheetId="5" userName="Jason Wang" r:id="rId26" minRId="2384">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3A0FB77F-EEFE-4765-8C3A-249F0F31BA2F}" dateTime="2021-05-06T13:47:20" maxSheetId="5" userName="Jason Wang" r:id="rId27" minRId="2385" maxRId="2473">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1E1DC598-53B8-4C47-93B8-973918095140}" dateTime="2021-05-06T13:47:23" maxSheetId="5" userName="Jason Wang" r:id="rId28">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -17867,6 +17893,813 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2382" sId="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>PNMAIN_ENABLE_BITGEN=1</t>
+      </is>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+  <rcc rId="2383" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>silicon_05_Jedi_d2_v2.00</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>silicon_05_Jedi_d2_v2.01</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2384" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng2_3</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng3_0</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="2385" sId="2" ref="A10:XFD10" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A10:XFD10" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" numFmtId="30">
+      <nc r="A10">
+        <v>8</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E10" t="inlineStr">
+        <is>
+          <t>00_primitive/00_common/10_FL1P3AZ</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L10" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="S10" t="inlineStr">
+        <is>
+          <t>primitive</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="AD10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2386" sId="2" numFmtId="30">
+    <oc r="A10">
+      <v>9</v>
+    </oc>
+    <nc r="A10">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="2387" sId="2" numFmtId="30">
+    <oc r="A11">
+      <v>10</v>
+    </oc>
+    <nc r="A11">
+      <v>9</v>
+    </nc>
+  </rcc>
+  <rcc rId="2388" sId="2" numFmtId="30">
+    <oc r="A12">
+      <v>11</v>
+    </oc>
+    <nc r="A12">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="2389" sId="2" numFmtId="30">
+    <oc r="A13">
+      <v>12</v>
+    </oc>
+    <nc r="A13">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="2390" sId="2" numFmtId="30">
+    <oc r="A14">
+      <v>13</v>
+    </oc>
+    <nc r="A14">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="2391" sId="2" numFmtId="30">
+    <oc r="A15">
+      <v>14</v>
+    </oc>
+    <nc r="A15">
+      <v>13</v>
+    </nc>
+  </rcc>
+  <rcc rId="2392" sId="2" numFmtId="30">
+    <oc r="A16">
+      <v>15</v>
+    </oc>
+    <nc r="A16">
+      <v>14</v>
+    </nc>
+  </rcc>
+  <rcc rId="2393" sId="2" numFmtId="30">
+    <oc r="A17">
+      <v>16</v>
+    </oc>
+    <nc r="A17">
+      <v>15</v>
+    </nc>
+  </rcc>
+  <rcc rId="2394" sId="2" numFmtId="30">
+    <oc r="A18">
+      <v>17</v>
+    </oc>
+    <nc r="A18">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="2395" sId="2" numFmtId="30">
+    <oc r="A19">
+      <v>18</v>
+    </oc>
+    <nc r="A19">
+      <v>17</v>
+    </nc>
+  </rcc>
+  <rcc rId="2396" sId="2" numFmtId="30">
+    <oc r="A20">
+      <v>19</v>
+    </oc>
+    <nc r="A20">
+      <v>18</v>
+    </nc>
+  </rcc>
+  <rcc rId="2397" sId="2" numFmtId="30">
+    <oc r="A21">
+      <v>20</v>
+    </oc>
+    <nc r="A21">
+      <v>19</v>
+    </nc>
+  </rcc>
+  <rcc rId="2398" sId="2" numFmtId="30">
+    <oc r="A22">
+      <v>21</v>
+    </oc>
+    <nc r="A22">
+      <v>20</v>
+    </nc>
+  </rcc>
+  <rcc rId="2399" sId="2" numFmtId="30">
+    <oc r="A23">
+      <v>22</v>
+    </oc>
+    <nc r="A23">
+      <v>21</v>
+    </nc>
+  </rcc>
+  <rcc rId="2400" sId="2" numFmtId="30">
+    <oc r="A24">
+      <v>23</v>
+    </oc>
+    <nc r="A24">
+      <v>22</v>
+    </nc>
+  </rcc>
+  <rcc rId="2401" sId="2" numFmtId="30">
+    <oc r="A25">
+      <v>24</v>
+    </oc>
+    <nc r="A25">
+      <v>23</v>
+    </nc>
+  </rcc>
+  <rcc rId="2402" sId="2" numFmtId="30">
+    <oc r="A26">
+      <v>25</v>
+    </oc>
+    <nc r="A26">
+      <v>24</v>
+    </nc>
+  </rcc>
+  <rcc rId="2403" sId="2" numFmtId="30">
+    <oc r="A27">
+      <v>26</v>
+    </oc>
+    <nc r="A27">
+      <v>25</v>
+    </nc>
+  </rcc>
+  <rcc rId="2404" sId="2" numFmtId="30">
+    <oc r="A28">
+      <v>27</v>
+    </oc>
+    <nc r="A28">
+      <v>26</v>
+    </nc>
+  </rcc>
+  <rcc rId="2405" sId="2" numFmtId="30">
+    <oc r="A29">
+      <v>28</v>
+    </oc>
+    <nc r="A29">
+      <v>27</v>
+    </nc>
+  </rcc>
+  <rcc rId="2406" sId="2" numFmtId="30">
+    <oc r="A30">
+      <v>29</v>
+    </oc>
+    <nc r="A30">
+      <v>28</v>
+    </nc>
+  </rcc>
+  <rcc rId="2407" sId="2" numFmtId="30">
+    <oc r="A31">
+      <v>30</v>
+    </oc>
+    <nc r="A31">
+      <v>29</v>
+    </nc>
+  </rcc>
+  <rcc rId="2408" sId="2" numFmtId="30">
+    <oc r="A32">
+      <v>31</v>
+    </oc>
+    <nc r="A32">
+      <v>30</v>
+    </nc>
+  </rcc>
+  <rcc rId="2409" sId="2" numFmtId="30">
+    <oc r="A33">
+      <v>32</v>
+    </oc>
+    <nc r="A33">
+      <v>31</v>
+    </nc>
+  </rcc>
+  <rcc rId="2410" sId="2" numFmtId="30">
+    <oc r="A34">
+      <v>33</v>
+    </oc>
+    <nc r="A34">
+      <v>32</v>
+    </nc>
+  </rcc>
+  <rcc rId="2411" sId="2" numFmtId="30">
+    <oc r="A35">
+      <v>34</v>
+    </oc>
+    <nc r="A35">
+      <v>33</v>
+    </nc>
+  </rcc>
+  <rcc rId="2412" sId="2" numFmtId="30">
+    <oc r="A36">
+      <v>35</v>
+    </oc>
+    <nc r="A36">
+      <v>34</v>
+    </nc>
+  </rcc>
+  <rcc rId="2413" sId="2" numFmtId="30">
+    <oc r="A37">
+      <v>36</v>
+    </oc>
+    <nc r="A37">
+      <v>35</v>
+    </nc>
+  </rcc>
+  <rcc rId="2414" sId="2" numFmtId="30">
+    <oc r="A38">
+      <v>37</v>
+    </oc>
+    <nc r="A38">
+      <v>36</v>
+    </nc>
+  </rcc>
+  <rcc rId="2415" sId="2" numFmtId="30">
+    <oc r="A39">
+      <v>38</v>
+    </oc>
+    <nc r="A39">
+      <v>37</v>
+    </nc>
+  </rcc>
+  <rcc rId="2416" sId="2" numFmtId="30">
+    <oc r="A40">
+      <v>39</v>
+    </oc>
+    <nc r="A40">
+      <v>38</v>
+    </nc>
+  </rcc>
+  <rcc rId="2417" sId="2" numFmtId="30">
+    <oc r="A41">
+      <v>40</v>
+    </oc>
+    <nc r="A41">
+      <v>39</v>
+    </nc>
+  </rcc>
+  <rcc rId="2418" sId="2" numFmtId="30">
+    <oc r="A42">
+      <v>41</v>
+    </oc>
+    <nc r="A42">
+      <v>40</v>
+    </nc>
+  </rcc>
+  <rcc rId="2419" sId="2" numFmtId="30">
+    <oc r="A43">
+      <v>42</v>
+    </oc>
+    <nc r="A43">
+      <v>41</v>
+    </nc>
+  </rcc>
+  <rcc rId="2420" sId="2" numFmtId="30">
+    <oc r="A44">
+      <v>43</v>
+    </oc>
+    <nc r="A44">
+      <v>42</v>
+    </nc>
+  </rcc>
+  <rcc rId="2421" sId="2" numFmtId="30">
+    <oc r="A45">
+      <v>44</v>
+    </oc>
+    <nc r="A45">
+      <v>43</v>
+    </nc>
+  </rcc>
+  <rcc rId="2422" sId="2" numFmtId="30">
+    <oc r="A46">
+      <v>45</v>
+    </oc>
+    <nc r="A46">
+      <v>44</v>
+    </nc>
+  </rcc>
+  <rcc rId="2423" sId="2" numFmtId="30">
+    <oc r="A47">
+      <v>46</v>
+    </oc>
+    <nc r="A47">
+      <v>45</v>
+    </nc>
+  </rcc>
+  <rcc rId="2424" sId="2" numFmtId="30">
+    <oc r="A48">
+      <v>47</v>
+    </oc>
+    <nc r="A48">
+      <v>46</v>
+    </nc>
+  </rcc>
+  <rcc rId="2425" sId="2" numFmtId="30">
+    <oc r="A49">
+      <v>48</v>
+    </oc>
+    <nc r="A49">
+      <v>47</v>
+    </nc>
+  </rcc>
+  <rcc rId="2426" sId="2" numFmtId="30">
+    <oc r="A50">
+      <v>49</v>
+    </oc>
+    <nc r="A50">
+      <v>48</v>
+    </nc>
+  </rcc>
+  <rcc rId="2427" sId="2" numFmtId="30">
+    <oc r="A51">
+      <v>50</v>
+    </oc>
+    <nc r="A51">
+      <v>49</v>
+    </nc>
+  </rcc>
+  <rcc rId="2428" sId="2" numFmtId="30">
+    <oc r="A52">
+      <v>51</v>
+    </oc>
+    <nc r="A52">
+      <v>50</v>
+    </nc>
+  </rcc>
+  <rcc rId="2429" sId="2" numFmtId="30">
+    <oc r="A53">
+      <v>52</v>
+    </oc>
+    <nc r="A53">
+      <v>51</v>
+    </nc>
+  </rcc>
+  <rcc rId="2430" sId="2" numFmtId="30">
+    <oc r="A54">
+      <v>53</v>
+    </oc>
+    <nc r="A54">
+      <v>52</v>
+    </nc>
+  </rcc>
+  <rcc rId="2431" sId="2" numFmtId="30">
+    <oc r="A55">
+      <v>54</v>
+    </oc>
+    <nc r="A55">
+      <v>53</v>
+    </nc>
+  </rcc>
+  <rcc rId="2432" sId="2" numFmtId="30">
+    <oc r="A56">
+      <v>55</v>
+    </oc>
+    <nc r="A56">
+      <v>54</v>
+    </nc>
+  </rcc>
+  <rcc rId="2433" sId="2" numFmtId="30">
+    <oc r="A57">
+      <v>56</v>
+    </oc>
+    <nc r="A57">
+      <v>55</v>
+    </nc>
+  </rcc>
+  <rcc rId="2434" sId="2" numFmtId="30">
+    <oc r="A58">
+      <v>57</v>
+    </oc>
+    <nc r="A58">
+      <v>56</v>
+    </nc>
+  </rcc>
+  <rcc rId="2435" sId="2" numFmtId="30">
+    <oc r="A59">
+      <v>58</v>
+    </oc>
+    <nc r="A59">
+      <v>57</v>
+    </nc>
+  </rcc>
+  <rcc rId="2436" sId="2" numFmtId="30">
+    <oc r="A60">
+      <v>59</v>
+    </oc>
+    <nc r="A60">
+      <v>58</v>
+    </nc>
+  </rcc>
+  <rcc rId="2437" sId="2" numFmtId="30">
+    <oc r="A61">
+      <v>60</v>
+    </oc>
+    <nc r="A61">
+      <v>59</v>
+    </nc>
+  </rcc>
+  <rcc rId="2438" sId="2" numFmtId="30">
+    <oc r="A62">
+      <v>61</v>
+    </oc>
+    <nc r="A62">
+      <v>60</v>
+    </nc>
+  </rcc>
+  <rcc rId="2439" sId="2" numFmtId="30">
+    <oc r="A63">
+      <v>62</v>
+    </oc>
+    <nc r="A63">
+      <v>61</v>
+    </nc>
+  </rcc>
+  <rcc rId="2440" sId="2" numFmtId="30">
+    <oc r="A64">
+      <v>63</v>
+    </oc>
+    <nc r="A64">
+      <v>62</v>
+    </nc>
+  </rcc>
+  <rcc rId="2441" sId="2" numFmtId="30">
+    <oc r="A65">
+      <v>64</v>
+    </oc>
+    <nc r="A65">
+      <v>63</v>
+    </nc>
+  </rcc>
+  <rcc rId="2442" sId="2" numFmtId="30">
+    <oc r="A66">
+      <v>65</v>
+    </oc>
+    <nc r="A66">
+      <v>64</v>
+    </nc>
+  </rcc>
+  <rcc rId="2443" sId="2" numFmtId="30">
+    <oc r="A67">
+      <v>66</v>
+    </oc>
+    <nc r="A67">
+      <v>65</v>
+    </nc>
+  </rcc>
+  <rcc rId="2444" sId="2" numFmtId="30">
+    <oc r="A68">
+      <v>67</v>
+    </oc>
+    <nc r="A68">
+      <v>66</v>
+    </nc>
+  </rcc>
+  <rcc rId="2445" sId="2" numFmtId="30">
+    <oc r="A69">
+      <v>68</v>
+    </oc>
+    <nc r="A69">
+      <v>67</v>
+    </nc>
+  </rcc>
+  <rcc rId="2446" sId="2" numFmtId="30">
+    <oc r="A70">
+      <v>69</v>
+    </oc>
+    <nc r="A70">
+      <v>68</v>
+    </nc>
+  </rcc>
+  <rcc rId="2447" sId="2" numFmtId="30">
+    <oc r="A71">
+      <v>70</v>
+    </oc>
+    <nc r="A71">
+      <v>69</v>
+    </nc>
+  </rcc>
+  <rcc rId="2448" sId="2" numFmtId="30">
+    <oc r="A72">
+      <v>71</v>
+    </oc>
+    <nc r="A72">
+      <v>70</v>
+    </nc>
+  </rcc>
+  <rcc rId="2449" sId="2" numFmtId="30">
+    <oc r="A73">
+      <v>72</v>
+    </oc>
+    <nc r="A73">
+      <v>71</v>
+    </nc>
+  </rcc>
+  <rcc rId="2450" sId="2" numFmtId="30">
+    <oc r="A74">
+      <v>73</v>
+    </oc>
+    <nc r="A74">
+      <v>72</v>
+    </nc>
+  </rcc>
+  <rcc rId="2451" sId="2" numFmtId="30">
+    <oc r="A75">
+      <v>74</v>
+    </oc>
+    <nc r="A75">
+      <v>73</v>
+    </nc>
+  </rcc>
+  <rcc rId="2452" sId="2" numFmtId="30">
+    <oc r="A76">
+      <v>75</v>
+    </oc>
+    <nc r="A76">
+      <v>74</v>
+    </nc>
+  </rcc>
+  <rcc rId="2453" sId="2" numFmtId="30">
+    <oc r="A77">
+      <v>76</v>
+    </oc>
+    <nc r="A77">
+      <v>75</v>
+    </nc>
+  </rcc>
+  <rcc rId="2454" sId="2" numFmtId="30">
+    <oc r="A78">
+      <v>77</v>
+    </oc>
+    <nc r="A78">
+      <v>76</v>
+    </nc>
+  </rcc>
+  <rcc rId="2455" sId="2" numFmtId="30">
+    <oc r="A79">
+      <v>78</v>
+    </oc>
+    <nc r="A79">
+      <v>77</v>
+    </nc>
+  </rcc>
+  <rcc rId="2456" sId="2" numFmtId="30">
+    <oc r="A80">
+      <v>79</v>
+    </oc>
+    <nc r="A80">
+      <v>78</v>
+    </nc>
+  </rcc>
+  <rcc rId="2457" sId="2" numFmtId="30">
+    <oc r="A81">
+      <v>80</v>
+    </oc>
+    <nc r="A81">
+      <v>79</v>
+    </nc>
+  </rcc>
+  <rcc rId="2458" sId="2" numFmtId="30">
+    <oc r="A82">
+      <v>81</v>
+    </oc>
+    <nc r="A82">
+      <v>80</v>
+    </nc>
+  </rcc>
+  <rcc rId="2459" sId="2" numFmtId="30">
+    <oc r="A83">
+      <v>82</v>
+    </oc>
+    <nc r="A83">
+      <v>81</v>
+    </nc>
+  </rcc>
+  <rcc rId="2460" sId="2" numFmtId="30">
+    <oc r="A84">
+      <v>83</v>
+    </oc>
+    <nc r="A84">
+      <v>82</v>
+    </nc>
+  </rcc>
+  <rcc rId="2461" sId="2" numFmtId="30">
+    <oc r="A85">
+      <v>84</v>
+    </oc>
+    <nc r="A85">
+      <v>83</v>
+    </nc>
+  </rcc>
+  <rcc rId="2462" sId="2" numFmtId="30">
+    <oc r="A86">
+      <v>85</v>
+    </oc>
+    <nc r="A86">
+      <v>84</v>
+    </nc>
+  </rcc>
+  <rcc rId="2463" sId="2" numFmtId="30">
+    <oc r="A87">
+      <v>86</v>
+    </oc>
+    <nc r="A87">
+      <v>85</v>
+    </nc>
+  </rcc>
+  <rcc rId="2464" sId="2" numFmtId="30">
+    <oc r="A88">
+      <v>87</v>
+    </oc>
+    <nc r="A88">
+      <v>86</v>
+    </nc>
+  </rcc>
+  <rcc rId="2465" sId="2" numFmtId="30">
+    <oc r="A89">
+      <v>88</v>
+    </oc>
+    <nc r="A89">
+      <v>87</v>
+    </nc>
+  </rcc>
+  <rcc rId="2466" sId="2" numFmtId="30">
+    <oc r="A90">
+      <v>89</v>
+    </oc>
+    <nc r="A90">
+      <v>88</v>
+    </nc>
+  </rcc>
+  <rcc rId="2467" sId="2" numFmtId="30">
+    <oc r="A91">
+      <v>90</v>
+    </oc>
+    <nc r="A91">
+      <v>89</v>
+    </nc>
+  </rcc>
+  <rcc rId="2468" sId="2" numFmtId="30">
+    <oc r="A92">
+      <v>91</v>
+    </oc>
+    <nc r="A92">
+      <v>90</v>
+    </nc>
+  </rcc>
+  <rcc rId="2469" sId="2" numFmtId="30">
+    <oc r="A93">
+      <v>92</v>
+    </oc>
+    <nc r="A93">
+      <v>91</v>
+    </nc>
+  </rcc>
+  <rcc rId="2470" sId="2" numFmtId="30">
+    <oc r="A94">
+      <v>93</v>
+    </oc>
+    <nc r="A94">
+      <v>92</v>
+    </nc>
+  </rcc>
+  <rcc rId="2471" sId="2" numFmtId="30">
+    <oc r="A95">
+      <v>94</v>
+    </oc>
+    <nc r="A95">
+      <v>93</v>
+    </nc>
+  </rcc>
+  <rcc rId="2472" sId="2" numFmtId="30">
+    <oc r="A96">
+      <v>95</v>
+    </oc>
+    <nc r="A96">
+      <v>94</v>
+    </nc>
+  </rcc>
+  <rcc rId="2473" sId="2" numFmtId="30">
+    <oc r="A97">
+      <v>96</v>
+    </oc>
+    <nc r="A97">
+      <v>95</v>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
 </revisions>
 </file>
 
@@ -26288,7 +27121,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" name="Cherry (Ying) Xu" id="-707422276" dateTime="2020-11-23T15:52:35"/>
 </users>
@@ -26583,9 +27416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -26596,10 +27427,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -26615,7 +27446,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -26628,23 +27459,20 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -26652,7 +27480,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -26689,7 +27517,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -26700,7 +27528,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -26711,7 +27539,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -26738,7 +27566,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -26749,7 +27577,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -26760,7 +27588,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -26771,23 +27599,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
-      <selection activeCell="C37" sqref="C37"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B24" sqref="B24"/>
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
+      <selection activeCell="C37" sqref="C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -26800,14 +27627,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD98"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26972,10 +27799,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>262</v>
@@ -26986,10 +27813,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>262</v>
@@ -27000,10 +27827,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>260</v>
@@ -27014,10 +27841,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>262</v>
@@ -27028,10 +27855,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>262</v>
@@ -27042,10 +27869,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>262</v>
@@ -27056,10 +27883,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>262</v>
@@ -27070,10 +27897,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>262</v>
@@ -27084,10 +27911,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>262</v>
@@ -27098,10 +27925,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>262</v>
@@ -27112,10 +27939,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>262</v>
@@ -27126,10 +27953,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>262</v>
@@ -27140,10 +27967,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>262</v>
@@ -27154,10 +27981,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>262</v>
@@ -27168,10 +27995,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>262</v>
@@ -27182,10 +28009,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>262</v>
@@ -27196,10 +28023,10 @@
         <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>262</v>
@@ -27210,10 +28037,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>262</v>
@@ -27224,10 +28051,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>262</v>
@@ -27238,13 +28065,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -27252,13 +28079,13 @@
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -27266,13 +28093,13 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -27280,10 +28107,10 @@
         <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>260</v>
@@ -27294,10 +28121,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD26" s="2" t="s">
         <v>260</v>
@@ -27308,13 +28135,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -27322,10 +28149,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>262</v>
@@ -27336,10 +28163,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>262</v>
@@ -27350,10 +28177,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>262</v>
@@ -27364,10 +28191,10 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>262</v>
@@ -27378,10 +28205,10 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>262</v>
@@ -27392,13 +28219,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -27406,13 +28233,13 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -27420,10 +28247,10 @@
         <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>262</v>
@@ -27434,10 +28261,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>262</v>
@@ -27448,10 +28275,10 @@
         <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>262</v>
@@ -27462,10 +28289,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>262</v>
@@ -27476,10 +28303,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>262</v>
@@ -27490,10 +28317,10 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>262</v>
@@ -27504,10 +28331,10 @@
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD41" s="2" t="s">
         <v>262</v>
@@ -27518,10 +28345,10 @@
         <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>262</v>
@@ -27532,10 +28359,10 @@
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>262</v>
@@ -27546,10 +28373,10 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD44" s="2" t="s">
         <v>262</v>
@@ -27560,10 +28387,10 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>262</v>
@@ -27574,10 +28401,10 @@
         <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>262</v>
@@ -27588,10 +28415,10 @@
         <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD47" s="2" t="s">
         <v>262</v>
@@ -27602,10 +28429,10 @@
         <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>262</v>
@@ -27616,10 +28443,10 @@
         <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>262</v>
@@ -27630,10 +28457,10 @@
         <v>48</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>262</v>
@@ -27644,10 +28471,10 @@
         <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD51" s="2" t="s">
         <v>262</v>
@@ -27658,10 +28485,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD52" s="2" t="s">
         <v>262</v>
@@ -27672,10 +28499,10 @@
         <v>51</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>262</v>
@@ -27686,10 +28513,10 @@
         <v>52</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD54" s="2" t="s">
         <v>262</v>
@@ -27700,10 +28527,10 @@
         <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>262</v>
@@ -27714,10 +28541,10 @@
         <v>54</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD56" s="2" t="s">
         <v>262</v>
@@ -27728,10 +28555,10 @@
         <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>262</v>
@@ -27742,13 +28569,13 @@
         <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -27756,13 +28583,13 @@
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -27770,10 +28597,10 @@
         <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD60" s="2" t="s">
         <v>262</v>
@@ -27784,10 +28611,10 @@
         <v>59</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD61" s="2" t="s">
         <v>262</v>
@@ -27798,10 +28625,10 @@
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD62" s="2" t="s">
         <v>262</v>
@@ -27812,10 +28639,10 @@
         <v>61</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD63" s="2" t="s">
         <v>262</v>
@@ -27826,10 +28653,10 @@
         <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD64" s="2" t="s">
         <v>262</v>
@@ -27840,10 +28667,10 @@
         <v>63</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD65" s="2" t="s">
         <v>262</v>
@@ -27854,10 +28681,10 @@
         <v>64</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>262</v>
@@ -27868,10 +28695,10 @@
         <v>65</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD67" s="2" t="s">
         <v>262</v>
@@ -27882,10 +28709,10 @@
         <v>66</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD68" s="2" t="s">
         <v>262</v>
@@ -27896,10 +28723,10 @@
         <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD69" s="2" t="s">
         <v>262</v>
@@ -27910,10 +28737,10 @@
         <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD70" s="2" t="s">
         <v>262</v>
@@ -27924,10 +28751,10 @@
         <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD71" s="2" t="s">
         <v>262</v>
@@ -27938,10 +28765,10 @@
         <v>70</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD72" s="2" t="s">
         <v>262</v>
@@ -27952,10 +28779,10 @@
         <v>71</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD73" s="2" t="s">
         <v>262</v>
@@ -27966,10 +28793,10 @@
         <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD74" s="2" t="s">
         <v>262</v>
@@ -27980,10 +28807,10 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD75" s="2" t="s">
         <v>262</v>
@@ -27994,10 +28821,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD76" s="2" t="s">
         <v>262</v>
@@ -28008,10 +28835,10 @@
         <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD77" s="2" t="s">
         <v>262</v>
@@ -28022,10 +28849,10 @@
         <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD78" s="2" t="s">
         <v>262</v>
@@ -28036,10 +28863,10 @@
         <v>77</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD79" s="2" t="s">
         <v>262</v>
@@ -28050,10 +28877,10 @@
         <v>78</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>262</v>
@@ -28064,10 +28891,10 @@
         <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD81" s="2" t="s">
         <v>262</v>
@@ -28078,10 +28905,10 @@
         <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD82" s="2" t="s">
         <v>262</v>
@@ -28092,10 +28919,10 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD83" s="2" t="s">
         <v>262</v>
@@ -28106,10 +28933,10 @@
         <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD84" s="2" t="s">
         <v>262</v>
@@ -28120,10 +28947,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD85" s="2" t="s">
         <v>262</v>
@@ -28134,10 +28961,10 @@
         <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD86" s="2" t="s">
         <v>262</v>
@@ -28148,10 +28975,10 @@
         <v>85</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD87" s="2" t="s">
         <v>262</v>
@@ -28162,10 +28989,10 @@
         <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>262</v>
@@ -28176,10 +29003,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD89" s="2" t="s">
         <v>262</v>
@@ -28190,10 +29017,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD90" s="2" t="s">
         <v>262</v>
@@ -28204,10 +29031,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD91" s="2" t="s">
         <v>262</v>
@@ -28218,10 +29045,10 @@
         <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD92" s="2" t="s">
         <v>262</v>
@@ -28232,10 +29059,10 @@
         <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD93" s="2" t="s">
         <v>262</v>
@@ -28246,13 +29073,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -28260,13 +29087,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -28274,13 +29101,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S96" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S96" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="AD96" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -28288,26 +29115,12 @@
         <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
-      <c r="A98" s="2">
-        <v>96</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD98" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -28315,30 +29128,30 @@
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD2"/>
   <customSheetViews>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="70" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O114" sqref="O114"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="70" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AD2"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="70" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="70" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O114" sqref="O114"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="A2:AD2"/>
@@ -28477,17 +29290,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="104" t="s">
+      <c r="F111" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="105"/>
-      <c r="J111" s="105"/>
-      <c r="K111" s="105"/>
-      <c r="L111" s="105"/>
-      <c r="M111" s="105"/>
-      <c r="N111" s="106"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="75"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -29351,7 +30164,7 @@
       <c r="A147" s="26">
         <v>1</v>
       </c>
-      <c r="B147" s="89" t="s">
+      <c r="B147" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="27" t="s">
@@ -29377,7 +30190,7 @@
       <c r="A148" s="26">
         <v>2</v>
       </c>
-      <c r="B148" s="90"/>
+      <c r="B148" s="77"/>
       <c r="C148" s="28" t="s">
         <v>129</v>
       </c>
@@ -29399,7 +30212,7 @@
       <c r="A149" s="26">
         <v>3</v>
       </c>
-      <c r="B149" s="90"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="28" t="s">
         <v>8</v>
       </c>
@@ -29419,7 +30232,7 @@
       <c r="A150" s="26">
         <v>4</v>
       </c>
-      <c r="B150" s="90"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="28" t="s">
         <v>131</v>
       </c>
@@ -29443,7 +30256,7 @@
       <c r="A151" s="26">
         <v>5</v>
       </c>
-      <c r="B151" s="90"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="27" t="s">
         <v>133</v>
       </c>
@@ -29467,7 +30280,7 @@
       <c r="A152" s="26">
         <v>6</v>
       </c>
-      <c r="B152" s="90"/>
+      <c r="B152" s="77"/>
       <c r="C152" s="27" t="s">
         <v>137</v>
       </c>
@@ -29491,7 +30304,7 @@
       <c r="A153" s="26">
         <v>7</v>
       </c>
-      <c r="B153" s="90"/>
+      <c r="B153" s="77"/>
       <c r="C153" s="28" t="s">
         <v>140</v>
       </c>
@@ -29513,7 +30326,7 @@
       <c r="A154" s="26">
         <v>8</v>
       </c>
-      <c r="B154" s="90"/>
+      <c r="B154" s="77"/>
       <c r="C154" s="27" t="s">
         <v>141</v>
       </c>
@@ -29537,7 +30350,7 @@
       <c r="A155" s="26">
         <v>9</v>
       </c>
-      <c r="B155" s="90"/>
+      <c r="B155" s="77"/>
       <c r="C155" s="27" t="s">
         <v>142</v>
       </c>
@@ -29561,7 +30374,7 @@
       <c r="A156" s="26">
         <v>10</v>
       </c>
-      <c r="B156" s="90"/>
+      <c r="B156" s="77"/>
       <c r="C156" s="28" t="s">
         <v>143</v>
       </c>
@@ -29585,7 +30398,7 @@
       <c r="A157" s="26">
         <v>11</v>
       </c>
-      <c r="B157" s="90"/>
+      <c r="B157" s="77"/>
       <c r="C157" s="28" t="s">
         <v>144</v>
       </c>
@@ -29609,7 +30422,7 @@
       <c r="A158" s="26">
         <v>12</v>
       </c>
-      <c r="B158" s="90"/>
+      <c r="B158" s="77"/>
       <c r="C158" s="28" t="s">
         <v>146</v>
       </c>
@@ -29631,7 +30444,7 @@
       <c r="A159" s="26">
         <v>13</v>
       </c>
-      <c r="B159" s="84"/>
+      <c r="B159" s="78"/>
       <c r="C159" s="28" t="s">
         <v>54</v>
       </c>
@@ -29655,7 +30468,7 @@
       <c r="A160" s="26">
         <v>14</v>
       </c>
-      <c r="B160" s="80" t="s">
+      <c r="B160" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="28" t="s">
@@ -29681,7 +30494,7 @@
       <c r="A161" s="26">
         <v>15</v>
       </c>
-      <c r="B161" s="79"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="28" t="s">
         <v>154</v>
       </c>
@@ -29705,7 +30518,7 @@
       <c r="A162" s="26">
         <v>16</v>
       </c>
-      <c r="B162" s="89" t="s">
+      <c r="B162" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="28" t="s">
@@ -29729,7 +30542,7 @@
       <c r="A163" s="26">
         <v>17</v>
       </c>
-      <c r="B163" s="107"/>
+      <c r="B163" s="79"/>
       <c r="C163" s="27" t="s">
         <v>158</v>
       </c>
@@ -29751,7 +30564,7 @@
       <c r="A164" s="26">
         <v>18</v>
       </c>
-      <c r="B164" s="84"/>
+      <c r="B164" s="78"/>
       <c r="C164" s="27" t="s">
         <v>160</v>
       </c>
@@ -29771,7 +30584,7 @@
       <c r="A165" s="26">
         <v>19</v>
       </c>
-      <c r="B165" s="80" t="s">
+      <c r="B165" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="28" t="s">
@@ -29795,7 +30608,7 @@
       <c r="A166" s="26">
         <v>20</v>
       </c>
-      <c r="B166" s="79"/>
+      <c r="B166" s="72"/>
       <c r="C166" s="28" t="s">
         <v>165</v>
       </c>
@@ -29815,7 +30628,7 @@
       <c r="A167" s="26">
         <v>21</v>
       </c>
-      <c r="B167" s="79"/>
+      <c r="B167" s="72"/>
       <c r="C167" s="28" t="s">
         <v>166</v>
       </c>
@@ -29835,7 +30648,7 @@
       <c r="A168" s="26">
         <v>22</v>
       </c>
-      <c r="B168" s="79"/>
+      <c r="B168" s="72"/>
       <c r="C168" s="28" t="s">
         <v>167</v>
       </c>
@@ -29855,7 +30668,7 @@
       <c r="A169" s="26">
         <v>23</v>
       </c>
-      <c r="B169" s="79"/>
+      <c r="B169" s="72"/>
       <c r="C169" s="28" t="s">
         <v>168</v>
       </c>
@@ -29875,7 +30688,7 @@
       <c r="A170" s="26">
         <v>24</v>
       </c>
-      <c r="B170" s="79"/>
+      <c r="B170" s="72"/>
       <c r="C170" s="28" t="s">
         <v>169</v>
       </c>
@@ -29895,7 +30708,7 @@
       <c r="A171" s="26">
         <v>25</v>
       </c>
-      <c r="B171" s="79"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="28" t="s">
         <v>170</v>
       </c>
@@ -29915,7 +30728,7 @@
       <c r="A172" s="26">
         <v>26</v>
       </c>
-      <c r="B172" s="79"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="28" t="s">
         <v>39</v>
       </c>
@@ -29935,7 +30748,7 @@
       <c r="A173" s="26">
         <v>27</v>
       </c>
-      <c r="B173" s="80" t="s">
+      <c r="B173" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="28" t="s">
@@ -29959,7 +30772,7 @@
       <c r="A174" s="26">
         <v>28</v>
       </c>
-      <c r="B174" s="79"/>
+      <c r="B174" s="72"/>
       <c r="C174" s="27" t="s">
         <v>174</v>
       </c>
@@ -29981,7 +30794,7 @@
       <c r="A175" s="26">
         <v>29</v>
       </c>
-      <c r="B175" s="79"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="28" t="s">
         <v>177</v>
       </c>
@@ -30003,7 +30816,7 @@
       <c r="A176" s="26">
         <v>30</v>
       </c>
-      <c r="B176" s="89" t="s">
+      <c r="B176" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="28" t="s">
@@ -30029,7 +30842,7 @@
       <c r="A177" s="31">
         <v>31</v>
       </c>
-      <c r="B177" s="90"/>
+      <c r="B177" s="77"/>
       <c r="C177" s="32" t="s">
         <v>182</v>
       </c>
@@ -30053,7 +30866,7 @@
       <c r="A178" s="23">
         <v>32</v>
       </c>
-      <c r="B178" s="91" t="s">
+      <c r="B178" s="80" t="s">
         <v>184</v>
       </c>
       <c r="C178" s="33" t="s">
@@ -30077,7 +30890,7 @@
       <c r="A179" s="26">
         <v>33</v>
       </c>
-      <c r="B179" s="92"/>
+      <c r="B179" s="81"/>
       <c r="C179" s="27" t="s">
         <v>188</v>
       </c>
@@ -30099,7 +30912,7 @@
       <c r="A180" s="26">
         <v>34</v>
       </c>
-      <c r="B180" s="93"/>
+      <c r="B180" s="82"/>
       <c r="C180" s="34" t="s">
         <v>191</v>
       </c>
@@ -30121,7 +30934,7 @@
       <c r="A181" s="31">
         <v>35</v>
       </c>
-      <c r="B181" s="93"/>
+      <c r="B181" s="82"/>
       <c r="C181" s="34" t="s">
         <v>192</v>
       </c>
@@ -30143,7 +30956,7 @@
       <c r="A182" s="31">
         <v>36</v>
       </c>
-      <c r="B182" s="93"/>
+      <c r="B182" s="82"/>
       <c r="C182" s="34" t="s">
         <v>195</v>
       </c>
@@ -30163,7 +30976,7 @@
       <c r="A183" s="31">
         <v>37</v>
       </c>
-      <c r="B183" s="93"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="34" t="s">
         <v>247</v>
       </c>
@@ -30185,7 +30998,7 @@
       <c r="A184" s="35">
         <v>38</v>
       </c>
-      <c r="B184" s="88"/>
+      <c r="B184" s="83"/>
       <c r="C184" s="36" t="s">
         <v>251</v>
       </c>
@@ -30236,11 +31049,11 @@
       <c r="B198" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C198" s="94" t="s">
+      <c r="C198" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D198" s="94"/>
-      <c r="E198" s="94"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
       <c r="F198" s="39" t="s">
         <v>41</v>
       </c>
@@ -30249,17 +31062,17 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="79" t="s">
+      <c r="B199" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C199" s="96" t="s">
+      <c r="C199" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D199" s="97"/>
-      <c r="E199" s="97"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="88"/>
       <c r="F199" s="28" t="s">
         <v>207</v>
       </c>
@@ -30268,13 +31081,13 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="77"/>
-      <c r="B200" s="95"/>
-      <c r="C200" s="98" t="s">
+      <c r="A200" s="85"/>
+      <c r="B200" s="86"/>
+      <c r="C200" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="99"/>
-      <c r="E200" s="99"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
       <c r="F200" s="32" t="s">
         <v>208</v>
       </c>
@@ -30283,15 +31096,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="77"/>
-      <c r="B201" s="79" t="s">
+      <c r="A201" s="85"/>
+      <c r="B201" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="C201" s="100" t="s">
+      <c r="C201" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="D201" s="100"/>
-      <c r="E201" s="100"/>
+      <c r="D201" s="91"/>
+      <c r="E201" s="91"/>
       <c r="F201" s="28" t="s">
         <v>207</v>
       </c>
@@ -30300,13 +31113,13 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="77"/>
-      <c r="B202" s="79"/>
-      <c r="C202" s="98" t="s">
+      <c r="A202" s="85"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="98"/>
-      <c r="E202" s="98"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="89"/>
       <c r="F202" s="28" t="s">
         <v>208</v>
       </c>
@@ -30315,15 +31128,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="77"/>
-      <c r="B203" s="95" t="s">
+      <c r="A203" s="85"/>
+      <c r="B203" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C203" s="101" t="s">
+      <c r="C203" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D203" s="102"/>
-      <c r="E203" s="103"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="94"/>
       <c r="F203" s="28" t="s">
         <v>207</v>
       </c>
@@ -30332,13 +31145,13 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="77"/>
-      <c r="B204" s="84"/>
-      <c r="C204" s="101" t="s">
+      <c r="A204" s="85"/>
+      <c r="B204" s="78"/>
+      <c r="C204" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="102"/>
-      <c r="E204" s="103"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="94"/>
       <c r="F204" s="28" t="s">
         <v>208</v>
       </c>
@@ -30347,15 +31160,15 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="77"/>
-      <c r="B205" s="79" t="s">
+      <c r="A205" s="85"/>
+      <c r="B205" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="C205" s="100" t="s">
+      <c r="C205" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="D205" s="100"/>
-      <c r="E205" s="100"/>
+      <c r="D205" s="91"/>
+      <c r="E205" s="91"/>
       <c r="F205" s="28" t="s">
         <v>207</v>
       </c>
@@ -30364,13 +31177,13 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="77"/>
-      <c r="B206" s="79"/>
-      <c r="C206" s="100" t="s">
+      <c r="A206" s="85"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="100"/>
-      <c r="E206" s="100"/>
+      <c r="D206" s="91"/>
+      <c r="E206" s="91"/>
       <c r="F206" s="28" t="s">
         <v>208</v>
       </c>
@@ -30379,17 +31192,17 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="77" t="s">
+      <c r="A207" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="B207" s="79" t="s">
+      <c r="B207" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C207" s="80" t="s">
+      <c r="C207" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D207" s="79"/>
-      <c r="E207" s="79"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
       <c r="F207" s="28" t="s">
         <v>207</v>
       </c>
@@ -30398,13 +31211,13 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="77"/>
-      <c r="B208" s="79"/>
-      <c r="C208" s="79" t="s">
+      <c r="A208" s="85"/>
+      <c r="B208" s="72"/>
+      <c r="C208" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D208" s="79"/>
-      <c r="E208" s="79"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="72"/>
       <c r="F208" s="28" t="s">
         <v>208</v>
       </c>
@@ -30413,15 +31226,15 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="77"/>
-      <c r="B209" s="79" t="s">
+      <c r="A209" s="85"/>
+      <c r="B209" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C209" s="79" t="s">
+      <c r="C209" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D209" s="79"/>
-      <c r="E209" s="79"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
       <c r="F209" s="28" t="s">
         <v>207</v>
       </c>
@@ -30430,13 +31243,13 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="77"/>
-      <c r="B210" s="79"/>
-      <c r="C210" s="79" t="s">
+      <c r="A210" s="85"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D210" s="79"/>
-      <c r="E210" s="79"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="72"/>
       <c r="F210" s="28" t="s">
         <v>208</v>
       </c>
@@ -30445,17 +31258,17 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="77" t="s">
+      <c r="A211" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="79" t="s">
+      <c r="B211" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D211" s="79"/>
-      <c r="E211" s="79"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
       <c r="F211" s="28" t="s">
         <v>207</v>
       </c>
@@ -30464,13 +31277,13 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="77"/>
-      <c r="B212" s="79"/>
-      <c r="C212" s="79" t="s">
+      <c r="A212" s="85"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D212" s="79"/>
-      <c r="E212" s="79"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
       <c r="F212" s="28" t="s">
         <v>208</v>
       </c>
@@ -30479,15 +31292,15 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="77"/>
-      <c r="B213" s="79" t="s">
+      <c r="A213" s="85"/>
+      <c r="B213" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="C213" s="80" t="s">
+      <c r="C213" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="D213" s="79"/>
-      <c r="E213" s="79"/>
+      <c r="D213" s="72"/>
+      <c r="E213" s="72"/>
       <c r="F213" s="28" t="s">
         <v>207</v>
       </c>
@@ -30496,13 +31309,13 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A214" s="78"/>
-      <c r="B214" s="81"/>
-      <c r="C214" s="81" t="s">
+      <c r="A214" s="96"/>
+      <c r="B214" s="97"/>
+      <c r="C214" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="D214" s="81"/>
-      <c r="E214" s="81"/>
+      <c r="D214" s="97"/>
+      <c r="E214" s="97"/>
       <c r="F214" s="36" t="s">
         <v>208</v>
       </c>
@@ -30541,12 +31354,12 @@
       <c r="A219" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B219" s="82" t="s">
+      <c r="B219" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C219" s="82"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="82"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="98"/>
+      <c r="E219" s="98"/>
       <c r="F219" s="46" t="s">
         <v>226</v>
       </c>
@@ -30558,12 +31371,12 @@
       <c r="A220" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="83" t="s">
+      <c r="B220" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C220" s="84"/>
-      <c r="D220" s="84"/>
-      <c r="E220" s="84"/>
+      <c r="C220" s="78"/>
+      <c r="D220" s="78"/>
+      <c r="E220" s="78"/>
       <c r="F220" s="49" t="s">
         <v>104</v>
       </c>
@@ -30575,12 +31388,12 @@
       <c r="A221" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="85" t="s">
+      <c r="B221" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="86"/>
-      <c r="D221" s="86"/>
-      <c r="E221" s="87"/>
+      <c r="C221" s="101"/>
+      <c r="D221" s="101"/>
+      <c r="E221" s="102"/>
       <c r="F221" s="15" t="s">
         <v>61</v>
       </c>
@@ -30592,12 +31405,12 @@
       <c r="A222" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B222" s="85" t="s">
+      <c r="B222" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C222" s="86"/>
-      <c r="D222" s="86"/>
-      <c r="E222" s="87"/>
+      <c r="C222" s="101"/>
+      <c r="D222" s="101"/>
+      <c r="E222" s="102"/>
       <c r="F222" s="18" t="s">
         <v>61</v>
       </c>
@@ -30609,12 +31422,12 @@
       <c r="A223" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="88" t="s">
+      <c r="B223" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
-      <c r="E223" s="81"/>
+      <c r="C223" s="97"/>
+      <c r="D223" s="97"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="21" t="s">
         <v>61</v>
       </c>
@@ -30659,11 +31472,11 @@
       <c r="C228" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D228" s="76" t="s">
+      <c r="D228" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E228" s="76"/>
-      <c r="F228" s="76"/>
+      <c r="E228" s="95"/>
+      <c r="F228" s="95"/>
       <c r="G228" s="57"/>
     </row>
     <row r="229" spans="1:7">
@@ -30676,11 +31489,11 @@
       <c r="C229" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="75" t="s">
+      <c r="D229" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E229" s="75"/>
-      <c r="F229" s="75"/>
+      <c r="E229" s="107"/>
+      <c r="F229" s="107"/>
       <c r="G229" s="41"/>
     </row>
     <row r="230" spans="1:7">
@@ -30693,11 +31506,11 @@
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="75" t="s">
+      <c r="D230" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="E230" s="75"/>
-      <c r="F230" s="75"/>
+      <c r="E230" s="107"/>
+      <c r="F230" s="107"/>
       <c r="G230" s="41"/>
     </row>
     <row r="231" spans="1:7">
@@ -30710,11 +31523,11 @@
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="75" t="s">
+      <c r="D231" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="E231" s="75"/>
-      <c r="F231" s="75"/>
+      <c r="E231" s="107"/>
+      <c r="F231" s="107"/>
       <c r="G231" s="41"/>
     </row>
     <row r="232" spans="1:7">
@@ -30727,11 +31540,11 @@
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="75" t="s">
+      <c r="D232" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="E232" s="75"/>
-      <c r="F232" s="75"/>
+      <c r="E232" s="107"/>
+      <c r="F232" s="107"/>
       <c r="G232" s="41"/>
     </row>
     <row r="233" spans="1:7">
@@ -30744,11 +31557,11 @@
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="75" t="s">
+      <c r="D233" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="E233" s="75"/>
-      <c r="F233" s="75"/>
+      <c r="E233" s="107"/>
+      <c r="F233" s="107"/>
       <c r="G233" s="41"/>
     </row>
     <row r="234" spans="1:7">
@@ -30761,11 +31574,11 @@
       <c r="C234" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="71" t="s">
+      <c r="D234" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E234" s="72"/>
-      <c r="F234" s="73"/>
+      <c r="E234" s="104"/>
+      <c r="F234" s="105"/>
       <c r="G234" s="43"/>
     </row>
     <row r="235" spans="1:7">
@@ -30778,11 +31591,11 @@
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="71" t="s">
+      <c r="D235" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E235" s="72"/>
-      <c r="F235" s="73"/>
+      <c r="E235" s="104"/>
+      <c r="F235" s="105"/>
       <c r="G235" s="43"/>
     </row>
     <row r="236" spans="1:7">
@@ -30795,11 +31608,11 @@
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="71" t="s">
+      <c r="D236" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E236" s="72"/>
-      <c r="F236" s="73"/>
+      <c r="E236" s="104"/>
+      <c r="F236" s="105"/>
       <c r="G236" s="43"/>
     </row>
     <row r="237" spans="1:7">
@@ -30880,33 +31693,56 @@
       <c r="C241" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D241" s="74" t="s">
+      <c r="D241" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
+      <c r="E241" s="106"/>
+      <c r="F241" s="106"/>
       <c r="G241" s="44"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
     <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="B178:B184"/>
     <mergeCell ref="C198:E198"/>
@@ -30923,35 +31759,12 @@
     <mergeCell ref="B205:B206"/>
     <mergeCell ref="C205:E205"/>
     <mergeCell ref="C206:E206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -30974,18 +31787,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_05_Jedi_d2.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_05_Jedi_d2.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{6E62C54B-B415-4550-A822-1A58F4DF5CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -27,16 +28,16 @@
   </definedNames>
   <calcPr calcId="122211" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="369">
   <si>
     <t>project_id</t>
   </si>
@@ -1113,18 +1114,12 @@
     <t>00_primitive/06_DDR/18_ODDRX2_22_gddrx2</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
-  </si>
-  <si>
     <t>00_primitive/06_DDR/24_ODDRX5_27_gddrx5</t>
   </si>
   <si>
     <t>00_primitive/06_DDR/25_OSHX2_31_mddrx2_oshx2</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
-  </si>
-  <si>
     <t>00_primitive/07_Misc/02_BNKREF18</t>
   </si>
   <si>
@@ -1170,9 +1165,6 @@
     <t>[suite_info]</t>
   </si>
   <si>
-    <t>Quin.Xu</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmd =   --check-conf=sim.conf,impl.conf --check-smart --sim-rtl   --synthesis=lse </t>
   </si>
   <si>
@@ -1180,12 +1172,15 @@
   </si>
   <si>
     <t>radiant=ng3_0</t>
+  </si>
+  <si>
+    <t>Jason.Wang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -2270,7 +2265,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2278,13 +2273,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47">
@@ -2344,7 +2339,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2380,22 +2375,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2425,22 +2411,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2455,13 +2435,13 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2482,31 +2462,64 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2518,13 +2531,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2544,44 +2551,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2618,19 +2598,19 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="49"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Normal 5" xfId="46"/>
-    <cellStyle name="Normal 6" xfId="43"/>
-    <cellStyle name="Normal 6 2" xfId="48"/>
-    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -2666,7 +2646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4782,7 +4768,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4837,7 +4829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4882,7 +4880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5001,7 +5005,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5048,7 +5058,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5084,7 +5100,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E1DC598-53B8-4C47-93B8-973918095140}" diskRevisions="1" revisionId="2475" version="28">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C4F8101B-E02E-4E25-BF73-CF4B24AA4FAC}" diskRevisions="1" revisionId="2492" version="30">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5309,6 +5325,22 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{6F74B423-A81C-4958-AFC9-CA4728FF8EE1}" dateTime="2023-10-11T19:22:37" maxSheetId="5" userName="Jason Wang" r:id="rId29" minRId="2476">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C4F8101B-E02E-4E25-BF73-CF4B24AA4FAC}" dateTime="2023-10-11T19:23:17" maxSheetId="5" userName="Jason Wang" r:id="rId30" minRId="2477" maxRId="2492">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -18703,6 +18735,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2476" sId="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>Quin.Xu</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Jason.Wang</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="370" sId="2">
@@ -19376,6 +19425,201 @@
     <oldFormula>case!$A$2:$AD$2</oldFormula>
   </rdn>
   <rcv guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="2477" sId="2" ref="A82:XFD82" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A82:XFD82" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" numFmtId="30">
+      <nc r="A82">
+        <v>80</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E82" t="inlineStr">
+        <is>
+          <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L82" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="S82" t="inlineStr">
+        <is>
+          <t>primitive</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="AD82" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="2478" sId="2" ref="A84:XFD84" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A84:XFD84" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" numFmtId="30">
+      <nc r="A84">
+        <v>83</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E84" t="inlineStr">
+        <is>
+          <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L84" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="S84" t="inlineStr">
+        <is>
+          <t>primitive</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="AD84" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2479" sId="2" numFmtId="30">
+    <oc r="A82">
+      <v>81</v>
+    </oc>
+    <nc r="A82">
+      <v>80</v>
+    </nc>
+  </rcc>
+  <rcc rId="2480" sId="2" numFmtId="30">
+    <oc r="A83">
+      <v>82</v>
+    </oc>
+    <nc r="A83">
+      <v>81</v>
+    </nc>
+  </rcc>
+  <rcc rId="2481" sId="2" numFmtId="30">
+    <oc r="A84">
+      <v>84</v>
+    </oc>
+    <nc r="A84">
+      <v>82</v>
+    </nc>
+  </rcc>
+  <rcc rId="2482" sId="2" numFmtId="30">
+    <oc r="A85">
+      <v>85</v>
+    </oc>
+    <nc r="A85">
+      <v>83</v>
+    </nc>
+  </rcc>
+  <rcc rId="2483" sId="2" numFmtId="30">
+    <oc r="A86">
+      <v>86</v>
+    </oc>
+    <nc r="A86">
+      <v>84</v>
+    </nc>
+  </rcc>
+  <rcc rId="2484" sId="2" numFmtId="30">
+    <oc r="A87">
+      <v>87</v>
+    </oc>
+    <nc r="A87">
+      <v>85</v>
+    </nc>
+  </rcc>
+  <rcc rId="2485" sId="2" numFmtId="30">
+    <oc r="A88">
+      <v>88</v>
+    </oc>
+    <nc r="A88">
+      <v>86</v>
+    </nc>
+  </rcc>
+  <rcc rId="2486" sId="2" numFmtId="30">
+    <oc r="A89">
+      <v>89</v>
+    </oc>
+    <nc r="A89">
+      <v>87</v>
+    </nc>
+  </rcc>
+  <rcc rId="2487" sId="2" numFmtId="30">
+    <oc r="A90">
+      <v>90</v>
+    </oc>
+    <nc r="A90">
+      <v>88</v>
+    </nc>
+  </rcc>
+  <rcc rId="2488" sId="2" numFmtId="30">
+    <oc r="A91">
+      <v>91</v>
+    </oc>
+    <nc r="A91">
+      <v>89</v>
+    </nc>
+  </rcc>
+  <rcc rId="2489" sId="2" numFmtId="30">
+    <oc r="A92">
+      <v>92</v>
+    </oc>
+    <nc r="A92">
+      <v>90</v>
+    </nc>
+  </rcc>
+  <rcc rId="2490" sId="2" numFmtId="30">
+    <oc r="A93">
+      <v>93</v>
+    </oc>
+    <nc r="A93">
+      <v>91</v>
+    </nc>
+  </rcc>
+  <rcc rId="2491" sId="2" numFmtId="30">
+    <oc r="A94">
+      <v>94</v>
+    </oc>
+    <nc r="A94">
+      <v>92</v>
+    </nc>
+  </rcc>
+  <rcc rId="2492" sId="2" numFmtId="30">
+    <oc r="A95">
+      <v>95</v>
+    </oc>
+    <nc r="A95">
+      <v>93</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -27128,9 +27372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -27168,9 +27412,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -27205,7 +27449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -27240,7 +27484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27413,10 +27657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -27427,10 +27673,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -27446,7 +27692,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -27459,7 +27705,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27480,7 +27726,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -27539,7 +27785,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -27599,22 +27845,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
+      <selection activeCell="C37" sqref="C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
-      <selection activeCell="C37" sqref="C37"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -27626,15 +27872,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -27667,40 +27913,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -27802,7 +28048,7 @@
         <v>269</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>262</v>
@@ -27816,7 +28062,7 @@
         <v>270</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>262</v>
@@ -27830,7 +28076,7 @@
         <v>271</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>260</v>
@@ -27844,7 +28090,7 @@
         <v>272</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>262</v>
@@ -27858,7 +28104,7 @@
         <v>273</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>262</v>
@@ -27872,7 +28118,7 @@
         <v>274</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>262</v>
@@ -27886,7 +28132,7 @@
         <v>275</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>262</v>
@@ -27900,7 +28146,7 @@
         <v>276</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>262</v>
@@ -27914,7 +28160,7 @@
         <v>277</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>262</v>
@@ -27928,7 +28174,7 @@
         <v>278</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>262</v>
@@ -27942,7 +28188,7 @@
         <v>279</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>262</v>
@@ -27956,7 +28202,7 @@
         <v>280</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>262</v>
@@ -27970,7 +28216,7 @@
         <v>281</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>262</v>
@@ -27984,7 +28230,7 @@
         <v>282</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>262</v>
@@ -27998,7 +28244,7 @@
         <v>283</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>262</v>
@@ -28012,7 +28258,7 @@
         <v>284</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>262</v>
@@ -28026,7 +28272,7 @@
         <v>285</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>262</v>
@@ -28040,7 +28286,7 @@
         <v>286</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>262</v>
@@ -28054,7 +28300,7 @@
         <v>287</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>262</v>
@@ -28068,7 +28314,7 @@
         <v>288</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>260</v>
@@ -28082,7 +28328,7 @@
         <v>289</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>262</v>
@@ -28096,7 +28342,7 @@
         <v>290</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD24" s="2" t="s">
         <v>260</v>
@@ -28110,7 +28356,7 @@
         <v>291</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>260</v>
@@ -28124,7 +28370,7 @@
         <v>292</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD26" s="2" t="s">
         <v>260</v>
@@ -28138,7 +28384,7 @@
         <v>293</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD27" s="2" t="s">
         <v>262</v>
@@ -28152,7 +28398,7 @@
         <v>294</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>262</v>
@@ -28166,7 +28412,7 @@
         <v>295</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>262</v>
@@ -28180,7 +28426,7 @@
         <v>296</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>262</v>
@@ -28194,7 +28440,7 @@
         <v>297</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>262</v>
@@ -28208,7 +28454,7 @@
         <v>298</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>262</v>
@@ -28222,7 +28468,7 @@
         <v>299</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>260</v>
@@ -28236,7 +28482,7 @@
         <v>300</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>262</v>
@@ -28250,7 +28496,7 @@
         <v>301</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>262</v>
@@ -28264,7 +28510,7 @@
         <v>302</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>262</v>
@@ -28278,7 +28524,7 @@
         <v>303</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>262</v>
@@ -28292,7 +28538,7 @@
         <v>304</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>262</v>
@@ -28306,7 +28552,7 @@
         <v>305</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>262</v>
@@ -28320,7 +28566,7 @@
         <v>306</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>262</v>
@@ -28334,7 +28580,7 @@
         <v>307</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD41" s="2" t="s">
         <v>262</v>
@@ -28348,7 +28594,7 @@
         <v>308</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>262</v>
@@ -28362,7 +28608,7 @@
         <v>309</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>262</v>
@@ -28376,7 +28622,7 @@
         <v>310</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD44" s="2" t="s">
         <v>262</v>
@@ -28390,7 +28636,7 @@
         <v>311</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>262</v>
@@ -28404,7 +28650,7 @@
         <v>312</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>262</v>
@@ -28418,7 +28664,7 @@
         <v>313</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD47" s="2" t="s">
         <v>262</v>
@@ -28432,7 +28678,7 @@
         <v>314</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>262</v>
@@ -28446,7 +28692,7 @@
         <v>315</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>262</v>
@@ -28460,7 +28706,7 @@
         <v>316</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>262</v>
@@ -28474,7 +28720,7 @@
         <v>317</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD51" s="2" t="s">
         <v>262</v>
@@ -28488,7 +28734,7 @@
         <v>318</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD52" s="2" t="s">
         <v>262</v>
@@ -28502,7 +28748,7 @@
         <v>319</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>262</v>
@@ -28516,7 +28762,7 @@
         <v>320</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD54" s="2" t="s">
         <v>262</v>
@@ -28530,7 +28776,7 @@
         <v>321</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>262</v>
@@ -28544,7 +28790,7 @@
         <v>322</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD56" s="2" t="s">
         <v>262</v>
@@ -28558,7 +28804,7 @@
         <v>323</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>262</v>
@@ -28572,7 +28818,7 @@
         <v>324</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD58" s="2" t="s">
         <v>260</v>
@@ -28586,7 +28832,7 @@
         <v>325</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD59" s="2" t="s">
         <v>262</v>
@@ -28600,7 +28846,7 @@
         <v>326</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD60" s="2" t="s">
         <v>262</v>
@@ -28614,7 +28860,7 @@
         <v>327</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD61" s="2" t="s">
         <v>262</v>
@@ -28628,7 +28874,7 @@
         <v>328</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD62" s="2" t="s">
         <v>262</v>
@@ -28642,7 +28888,7 @@
         <v>329</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD63" s="2" t="s">
         <v>262</v>
@@ -28656,7 +28902,7 @@
         <v>330</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD64" s="2" t="s">
         <v>262</v>
@@ -28670,7 +28916,7 @@
         <v>331</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD65" s="2" t="s">
         <v>262</v>
@@ -28684,7 +28930,7 @@
         <v>332</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>262</v>
@@ -28698,7 +28944,7 @@
         <v>333</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD67" s="2" t="s">
         <v>262</v>
@@ -28712,7 +28958,7 @@
         <v>334</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD68" s="2" t="s">
         <v>262</v>
@@ -28726,7 +28972,7 @@
         <v>335</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD69" s="2" t="s">
         <v>262</v>
@@ -28740,7 +28986,7 @@
         <v>336</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD70" s="2" t="s">
         <v>262</v>
@@ -28754,7 +29000,7 @@
         <v>337</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD71" s="2" t="s">
         <v>262</v>
@@ -28768,7 +29014,7 @@
         <v>338</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD72" s="2" t="s">
         <v>262</v>
@@ -28782,7 +29028,7 @@
         <v>339</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD73" s="2" t="s">
         <v>262</v>
@@ -28796,7 +29042,7 @@
         <v>340</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD74" s="2" t="s">
         <v>262</v>
@@ -28810,7 +29056,7 @@
         <v>341</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD75" s="2" t="s">
         <v>262</v>
@@ -28824,7 +29070,7 @@
         <v>342</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD76" s="2" t="s">
         <v>262</v>
@@ -28838,7 +29084,7 @@
         <v>343</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD77" s="2" t="s">
         <v>262</v>
@@ -28852,7 +29098,7 @@
         <v>344</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD78" s="2" t="s">
         <v>262</v>
@@ -28866,7 +29112,7 @@
         <v>345</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD79" s="2" t="s">
         <v>262</v>
@@ -28880,7 +29126,7 @@
         <v>346</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>262</v>
@@ -28894,7 +29140,7 @@
         <v>347</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD81" s="2" t="s">
         <v>262</v>
@@ -28908,7 +29154,7 @@
         <v>348</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD82" s="2" t="s">
         <v>262</v>
@@ -28922,7 +29168,7 @@
         <v>349</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD83" s="2" t="s">
         <v>262</v>
@@ -28936,7 +29182,7 @@
         <v>350</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD84" s="2" t="s">
         <v>262</v>
@@ -28950,7 +29196,7 @@
         <v>351</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD85" s="2" t="s">
         <v>262</v>
@@ -28964,7 +29210,7 @@
         <v>352</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD86" s="2" t="s">
         <v>262</v>
@@ -28978,7 +29224,7 @@
         <v>353</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD87" s="2" t="s">
         <v>262</v>
@@ -28992,7 +29238,7 @@
         <v>354</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>262</v>
@@ -29006,7 +29252,7 @@
         <v>355</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD89" s="2" t="s">
         <v>262</v>
@@ -29020,7 +29266,7 @@
         <v>356</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD90" s="2" t="s">
         <v>262</v>
@@ -29034,7 +29280,7 @@
         <v>357</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD91" s="2" t="s">
         <v>262</v>
@@ -29048,10 +29294,10 @@
         <v>358</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -29062,7 +29308,7 @@
         <v>359</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD93" s="2" t="s">
         <v>262</v>
@@ -29076,7 +29322,7 @@
         <v>360</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD94" s="2" t="s">
         <v>260</v>
@@ -29090,71 +29336,43 @@
         <v>361</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
-      <c r="A96" s="2">
-        <v>94</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
-      <c r="A97" s="2">
-        <v>95</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD97" s="2" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AD2"/>
+  <autoFilter ref="A2:AD2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="70" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="70" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O114" sqref="O114"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AD2"/>
+      <autoFilter ref="A2:AD2" xr:uid="{0ABF4963-9567-4F5F-89B3-4D0C78A61BDF}"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{AB1A76C1-D1DE-4F6C-B72F-34583FC0D71F}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:Y2" xr:uid="{29DFB6E8-4BD4-4A92-B91A-94366B7032C1}"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2"/>
-    </customSheetView>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="70" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O114" sqref="O114"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="70" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AD2"/>
+      <autoFilter ref="A2:AD2" xr:uid="{741D5EF5-B726-4FCA-8F2C-D692CF5FF013}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -29163,7 +29381,7 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 M1:AA1 G1:H1 C1:E1 A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 M1:AA1 G1:H1 C1:E1 A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -29172,49 +29390,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>description!$F$140:$H$140</xm:f>
           </x14:formula1>
           <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
           <xm:sqref>AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$121:$K$121</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$E$113:$F$113</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
@@ -29227,7 +29445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
@@ -29290,17 +29508,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="73" t="s">
+      <c r="F111" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="75"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="101"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -30164,7 +30382,7 @@
       <c r="A147" s="26">
         <v>1</v>
       </c>
-      <c r="B147" s="76" t="s">
+      <c r="B147" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="27" t="s">
@@ -30190,7 +30408,7 @@
       <c r="A148" s="26">
         <v>2</v>
       </c>
-      <c r="B148" s="77"/>
+      <c r="B148" s="85"/>
       <c r="C148" s="28" t="s">
         <v>129</v>
       </c>
@@ -30212,7 +30430,7 @@
       <c r="A149" s="26">
         <v>3</v>
       </c>
-      <c r="B149" s="77"/>
+      <c r="B149" s="85"/>
       <c r="C149" s="28" t="s">
         <v>8</v>
       </c>
@@ -30232,7 +30450,7 @@
       <c r="A150" s="26">
         <v>4</v>
       </c>
-      <c r="B150" s="77"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="28" t="s">
         <v>131</v>
       </c>
@@ -30256,7 +30474,7 @@
       <c r="A151" s="26">
         <v>5</v>
       </c>
-      <c r="B151" s="77"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="27" t="s">
         <v>133</v>
       </c>
@@ -30280,7 +30498,7 @@
       <c r="A152" s="26">
         <v>6</v>
       </c>
-      <c r="B152" s="77"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="27" t="s">
         <v>137</v>
       </c>
@@ -30304,7 +30522,7 @@
       <c r="A153" s="26">
         <v>7</v>
       </c>
-      <c r="B153" s="77"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="28" t="s">
         <v>140</v>
       </c>
@@ -30326,7 +30544,7 @@
       <c r="A154" s="26">
         <v>8</v>
       </c>
-      <c r="B154" s="77"/>
+      <c r="B154" s="85"/>
       <c r="C154" s="27" t="s">
         <v>141</v>
       </c>
@@ -30350,7 +30568,7 @@
       <c r="A155" s="26">
         <v>9</v>
       </c>
-      <c r="B155" s="77"/>
+      <c r="B155" s="85"/>
       <c r="C155" s="27" t="s">
         <v>142</v>
       </c>
@@ -30374,7 +30592,7 @@
       <c r="A156" s="26">
         <v>10</v>
       </c>
-      <c r="B156" s="77"/>
+      <c r="B156" s="85"/>
       <c r="C156" s="28" t="s">
         <v>143</v>
       </c>
@@ -30398,7 +30616,7 @@
       <c r="A157" s="26">
         <v>11</v>
       </c>
-      <c r="B157" s="77"/>
+      <c r="B157" s="85"/>
       <c r="C157" s="28" t="s">
         <v>144</v>
       </c>
@@ -30422,7 +30640,7 @@
       <c r="A158" s="26">
         <v>12</v>
       </c>
-      <c r="B158" s="77"/>
+      <c r="B158" s="85"/>
       <c r="C158" s="28" t="s">
         <v>146</v>
       </c>
@@ -30444,7 +30662,7 @@
       <c r="A159" s="26">
         <v>13</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="79"/>
       <c r="C159" s="28" t="s">
         <v>54</v>
       </c>
@@ -30468,7 +30686,7 @@
       <c r="A160" s="26">
         <v>14</v>
       </c>
-      <c r="B160" s="71" t="s">
+      <c r="B160" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="28" t="s">
@@ -30494,7 +30712,7 @@
       <c r="A161" s="26">
         <v>15</v>
       </c>
-      <c r="B161" s="72"/>
+      <c r="B161" s="74"/>
       <c r="C161" s="28" t="s">
         <v>154</v>
       </c>
@@ -30518,7 +30736,7 @@
       <c r="A162" s="26">
         <v>16</v>
       </c>
-      <c r="B162" s="76" t="s">
+      <c r="B162" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="28" t="s">
@@ -30542,7 +30760,7 @@
       <c r="A163" s="26">
         <v>17</v>
       </c>
-      <c r="B163" s="79"/>
+      <c r="B163" s="102"/>
       <c r="C163" s="27" t="s">
         <v>158</v>
       </c>
@@ -30564,7 +30782,7 @@
       <c r="A164" s="26">
         <v>18</v>
       </c>
-      <c r="B164" s="78"/>
+      <c r="B164" s="79"/>
       <c r="C164" s="27" t="s">
         <v>160</v>
       </c>
@@ -30584,7 +30802,7 @@
       <c r="A165" s="26">
         <v>19</v>
       </c>
-      <c r="B165" s="71" t="s">
+      <c r="B165" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="28" t="s">
@@ -30608,7 +30826,7 @@
       <c r="A166" s="26">
         <v>20</v>
       </c>
-      <c r="B166" s="72"/>
+      <c r="B166" s="74"/>
       <c r="C166" s="28" t="s">
         <v>165</v>
       </c>
@@ -30628,7 +30846,7 @@
       <c r="A167" s="26">
         <v>21</v>
       </c>
-      <c r="B167" s="72"/>
+      <c r="B167" s="74"/>
       <c r="C167" s="28" t="s">
         <v>166</v>
       </c>
@@ -30648,7 +30866,7 @@
       <c r="A168" s="26">
         <v>22</v>
       </c>
-      <c r="B168" s="72"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="28" t="s">
         <v>167</v>
       </c>
@@ -30668,7 +30886,7 @@
       <c r="A169" s="26">
         <v>23</v>
       </c>
-      <c r="B169" s="72"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="28" t="s">
         <v>168</v>
       </c>
@@ -30688,7 +30906,7 @@
       <c r="A170" s="26">
         <v>24</v>
       </c>
-      <c r="B170" s="72"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="28" t="s">
         <v>169</v>
       </c>
@@ -30708,7 +30926,7 @@
       <c r="A171" s="26">
         <v>25</v>
       </c>
-      <c r="B171" s="72"/>
+      <c r="B171" s="74"/>
       <c r="C171" s="28" t="s">
         <v>170</v>
       </c>
@@ -30728,7 +30946,7 @@
       <c r="A172" s="26">
         <v>26</v>
       </c>
-      <c r="B172" s="72"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="28" t="s">
         <v>39</v>
       </c>
@@ -30748,7 +30966,7 @@
       <c r="A173" s="26">
         <v>27</v>
       </c>
-      <c r="B173" s="71" t="s">
+      <c r="B173" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="28" t="s">
@@ -30772,7 +30990,7 @@
       <c r="A174" s="26">
         <v>28</v>
       </c>
-      <c r="B174" s="72"/>
+      <c r="B174" s="74"/>
       <c r="C174" s="27" t="s">
         <v>174</v>
       </c>
@@ -30794,7 +31012,7 @@
       <c r="A175" s="26">
         <v>29</v>
       </c>
-      <c r="B175" s="72"/>
+      <c r="B175" s="74"/>
       <c r="C175" s="28" t="s">
         <v>177</v>
       </c>
@@ -30816,7 +31034,7 @@
       <c r="A176" s="26">
         <v>30</v>
       </c>
-      <c r="B176" s="76" t="s">
+      <c r="B176" s="84" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="28" t="s">
@@ -30842,7 +31060,7 @@
       <c r="A177" s="31">
         <v>31</v>
       </c>
-      <c r="B177" s="77"/>
+      <c r="B177" s="85"/>
       <c r="C177" s="32" t="s">
         <v>182</v>
       </c>
@@ -30866,7 +31084,7 @@
       <c r="A178" s="23">
         <v>32</v>
       </c>
-      <c r="B178" s="80" t="s">
+      <c r="B178" s="86" t="s">
         <v>184</v>
       </c>
       <c r="C178" s="33" t="s">
@@ -30890,7 +31108,7 @@
       <c r="A179" s="26">
         <v>33</v>
       </c>
-      <c r="B179" s="81"/>
+      <c r="B179" s="87"/>
       <c r="C179" s="27" t="s">
         <v>188</v>
       </c>
@@ -30912,7 +31130,7 @@
       <c r="A180" s="26">
         <v>34</v>
       </c>
-      <c r="B180" s="82"/>
+      <c r="B180" s="88"/>
       <c r="C180" s="34" t="s">
         <v>191</v>
       </c>
@@ -30934,7 +31152,7 @@
       <c r="A181" s="31">
         <v>35</v>
       </c>
-      <c r="B181" s="82"/>
+      <c r="B181" s="88"/>
       <c r="C181" s="34" t="s">
         <v>192</v>
       </c>
@@ -30956,17 +31174,17 @@
       <c r="A182" s="31">
         <v>36</v>
       </c>
-      <c r="B182" s="82"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D182" s="42" t="s">
+      <c r="D182" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E182" s="42" t="s">
+      <c r="E182" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F182" s="42"/>
+      <c r="F182" s="32"/>
       <c r="G182" s="34" t="s">
         <v>253</v>
       </c>
@@ -30976,15 +31194,15 @@
       <c r="A183" s="31">
         <v>37</v>
       </c>
-      <c r="B183" s="82"/>
+      <c r="B183" s="88"/>
       <c r="C183" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42" t="s">
+      <c r="E183" s="32"/>
+      <c r="F183" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G183" s="34" t="s">
@@ -31025,7 +31243,7 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="B186" s="37" t="s">
+      <c r="B186" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -31046,280 +31264,280 @@
       <c r="A198" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C198" s="84" t="s">
+      <c r="C198" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="39" t="s">
+      <c r="D198" s="89"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G198" s="40" t="s">
+      <c r="G198" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="85" t="s">
+      <c r="A199" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="72" t="s">
+      <c r="B199" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C199" s="87" t="s">
+      <c r="C199" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D199" s="88"/>
-      <c r="E199" s="88"/>
+      <c r="D199" s="92"/>
+      <c r="E199" s="92"/>
       <c r="F199" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G199" s="41" t="s">
+      <c r="G199" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="85"/>
-      <c r="B200" s="86"/>
-      <c r="C200" s="89" t="s">
+      <c r="A200" s="72"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
+      <c r="D200" s="94"/>
+      <c r="E200" s="94"/>
       <c r="F200" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G200" s="43" t="s">
+      <c r="G200" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="85"/>
-      <c r="B201" s="72" t="s">
+      <c r="A201" s="72"/>
+      <c r="B201" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="C201" s="91" t="s">
+      <c r="C201" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
+      <c r="D201" s="95"/>
+      <c r="E201" s="95"/>
       <c r="F201" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G201" s="41" t="s">
+      <c r="G201" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="85"/>
-      <c r="B202" s="72"/>
-      <c r="C202" s="89" t="s">
+      <c r="A202" s="72"/>
+      <c r="B202" s="74"/>
+      <c r="C202" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="89"/>
-      <c r="E202" s="89"/>
+      <c r="D202" s="93"/>
+      <c r="E202" s="93"/>
       <c r="F202" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G202" s="41" t="s">
+      <c r="G202" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="85"/>
-      <c r="B203" s="86" t="s">
+      <c r="A203" s="72"/>
+      <c r="B203" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C203" s="92" t="s">
+      <c r="C203" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D203" s="93"/>
-      <c r="E203" s="94"/>
+      <c r="D203" s="97"/>
+      <c r="E203" s="98"/>
       <c r="F203" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G203" s="41" t="s">
+      <c r="G203" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="85"/>
-      <c r="B204" s="78"/>
-      <c r="C204" s="92" t="s">
+      <c r="A204" s="72"/>
+      <c r="B204" s="79"/>
+      <c r="C204" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="93"/>
-      <c r="E204" s="94"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
       <c r="F204" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G204" s="41" t="s">
+      <c r="G204" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="85"/>
-      <c r="B205" s="72" t="s">
+      <c r="A205" s="72"/>
+      <c r="B205" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C205" s="91" t="s">
+      <c r="C205" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D205" s="91"/>
-      <c r="E205" s="91"/>
+      <c r="D205" s="95"/>
+      <c r="E205" s="95"/>
       <c r="F205" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G205" s="41" t="s">
+      <c r="G205" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="85"/>
-      <c r="B206" s="72"/>
-      <c r="C206" s="91" t="s">
+      <c r="A206" s="72"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="91"/>
-      <c r="E206" s="91"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
       <c r="F206" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="85" t="s">
+      <c r="A207" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B207" s="72" t="s">
+      <c r="B207" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C207" s="71" t="s">
+      <c r="C207" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
+      <c r="D207" s="74"/>
+      <c r="E207" s="74"/>
       <c r="F207" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G207" s="41" t="s">
+      <c r="G207" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="85"/>
-      <c r="B208" s="72"/>
-      <c r="C208" s="72" t="s">
+      <c r="A208" s="72"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D208" s="72"/>
-      <c r="E208" s="72"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G208" s="41" t="s">
+      <c r="G208" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="85"/>
-      <c r="B209" s="72" t="s">
+      <c r="A209" s="72"/>
+      <c r="B209" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C209" s="72" t="s">
+      <c r="C209" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G209" s="41" t="s">
+      <c r="G209" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="85"/>
-      <c r="B210" s="72"/>
-      <c r="C210" s="72" t="s">
+      <c r="A210" s="72"/>
+      <c r="B210" s="74"/>
+      <c r="C210" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
       <c r="F210" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G210" s="41" t="s">
+      <c r="G210" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="72" t="s">
+      <c r="B211" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C211" s="71" t="s">
+      <c r="C211" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G211" s="41" t="s">
+      <c r="G211" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="85"/>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72" t="s">
+      <c r="A212" s="72"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
       <c r="F212" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G212" s="41" t="s">
+      <c r="G212" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="85"/>
-      <c r="B213" s="72" t="s">
+      <c r="A213" s="72"/>
+      <c r="B213" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C213" s="71" t="s">
+      <c r="C213" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D213" s="72"/>
-      <c r="E213" s="72"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G213" s="41" t="s">
+      <c r="G213" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A214" s="96"/>
-      <c r="B214" s="97"/>
-      <c r="C214" s="97" t="s">
+      <c r="A214" s="73"/>
+      <c r="B214" s="76"/>
+      <c r="C214" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="D214" s="97"/>
-      <c r="E214" s="97"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="76"/>
       <c r="F214" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G214" s="44" t="s">
+      <c r="G214" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -31327,60 +31545,43 @@
       <c r="A215" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A219" s="45" t="s">
+      <c r="A219" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B219" s="98" t="s">
+      <c r="B219" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C219" s="98"/>
-      <c r="D219" s="98"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="46" t="s">
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="77"/>
+      <c r="F219" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="G219" s="47" t="s">
+      <c r="G219" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="93" customHeight="1">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="C220" s="78"/>
-      <c r="D220" s="78"/>
-      <c r="E220" s="78"/>
-      <c r="F220" s="49" t="s">
+      <c r="C220" s="79"/>
+      <c r="D220" s="79"/>
+      <c r="E220" s="79"/>
+      <c r="F220" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G220" s="50" t="s">
+      <c r="G220" s="47" t="s">
         <v>61</v>
       </c>
     </row>
@@ -31388,12 +31589,12 @@
       <c r="A221" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="100" t="s">
+      <c r="B221" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="101"/>
-      <c r="D221" s="101"/>
-      <c r="E221" s="102"/>
+      <c r="C221" s="81"/>
+      <c r="D221" s="81"/>
+      <c r="E221" s="82"/>
       <c r="F221" s="15" t="s">
         <v>61</v>
       </c>
@@ -31405,12 +31606,12 @@
       <c r="A222" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B222" s="100" t="s">
+      <c r="B222" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C222" s="101"/>
-      <c r="D222" s="101"/>
-      <c r="E222" s="102"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="82"/>
       <c r="F222" s="18" t="s">
         <v>61</v>
       </c>
@@ -31425,9 +31626,9 @@
       <c r="B223" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C223" s="97"/>
-      <c r="D223" s="97"/>
-      <c r="E223" s="97"/>
+      <c r="C223" s="76"/>
+      <c r="D223" s="76"/>
+      <c r="E223" s="76"/>
       <c r="F223" s="21" t="s">
         <v>61</v>
       </c>
@@ -31436,7 +31637,7 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="C224" s="51"/>
+      <c r="C224" s="48"/>
     </row>
     <row r="226" spans="1:7" ht="15.75" thickBot="1">
       <c r="A226" s="6" t="s">
@@ -31447,302 +31648,279 @@
       <c r="A227" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C227" s="52" t="s">
+      <c r="C227" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D227" s="53" t="s">
+      <c r="D227" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E227" s="53"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="40" t="s">
+      <c r="E227" s="50"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="38" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="55">
+      <c r="A228" s="51">
         <v>42682</v>
       </c>
-      <c r="B228" s="56">
+      <c r="B228" s="52">
         <v>1.04</v>
       </c>
       <c r="C228" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D228" s="95" t="s">
+      <c r="D228" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E228" s="95"/>
-      <c r="F228" s="95"/>
-      <c r="G228" s="57"/>
+      <c r="E228" s="71"/>
+      <c r="F228" s="71"/>
+      <c r="G228" s="25"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="58">
+      <c r="A229" s="53">
         <v>42692</v>
       </c>
-      <c r="B229" s="59">
+      <c r="B229" s="54">
         <v>1.05</v>
       </c>
       <c r="C229" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="107" t="s">
+      <c r="D229" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E229" s="107"/>
-      <c r="F229" s="107"/>
-      <c r="G229" s="41"/>
+      <c r="E229" s="70"/>
+      <c r="F229" s="70"/>
+      <c r="G229" s="39"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="58">
+      <c r="A230" s="53">
         <v>42955</v>
       </c>
-      <c r="B230" s="59">
+      <c r="B230" s="54">
         <v>1.06</v>
       </c>
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="107" t="s">
+      <c r="D230" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E230" s="107"/>
-      <c r="F230" s="107"/>
-      <c r="G230" s="41"/>
+      <c r="E230" s="70"/>
+      <c r="F230" s="70"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="58">
+      <c r="A231" s="53">
         <v>42991</v>
       </c>
-      <c r="B231" s="59">
+      <c r="B231" s="54">
         <v>1.07</v>
       </c>
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="107" t="s">
+      <c r="D231" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E231" s="107"/>
-      <c r="F231" s="107"/>
-      <c r="G231" s="41"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="70"/>
+      <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="58">
+      <c r="A232" s="53">
         <v>43026</v>
       </c>
-      <c r="B232" s="59">
+      <c r="B232" s="54">
         <v>1.08</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="107" t="s">
+      <c r="D232" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E232" s="107"/>
-      <c r="F232" s="107"/>
-      <c r="G232" s="41"/>
+      <c r="E232" s="70"/>
+      <c r="F232" s="70"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="58">
+      <c r="A233" s="53">
         <v>43069</v>
       </c>
-      <c r="B233" s="59">
+      <c r="B233" s="54">
         <v>1.0900000000000001</v>
       </c>
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="107" t="s">
+      <c r="D233" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="E233" s="107"/>
-      <c r="F233" s="107"/>
-      <c r="G233" s="41"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
+      <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="60">
+      <c r="A234" s="55">
         <v>43248</v>
       </c>
-      <c r="B234" s="61">
+      <c r="B234" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C234" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="103" t="s">
+      <c r="D234" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E234" s="104"/>
-      <c r="F234" s="105"/>
-      <c r="G234" s="43"/>
+      <c r="E234" s="67"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="40"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="60">
+      <c r="A235" s="55">
         <v>43339</v>
       </c>
-      <c r="B235" s="61">
+      <c r="B235" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="103" t="s">
+      <c r="D235" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E235" s="104"/>
-      <c r="F235" s="105"/>
-      <c r="G235" s="43"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="68"/>
+      <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="60">
+      <c r="A236" s="55">
         <v>43542</v>
       </c>
-      <c r="B236" s="61">
+      <c r="B236" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="103" t="s">
+      <c r="D236" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E236" s="104"/>
-      <c r="F236" s="105"/>
-      <c r="G236" s="43"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="68"/>
+      <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="60">
+      <c r="A237" s="55">
         <v>43599</v>
       </c>
-      <c r="B237" s="61">
+      <c r="B237" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="62" t="s">
+      <c r="D237" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E237" s="63"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="43"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="59"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="60">
+      <c r="A238" s="55">
         <v>43643</v>
       </c>
-      <c r="B238" s="61">
+      <c r="B238" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="C238" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E238" s="63"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="43"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="40"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="60">
+      <c r="A239" s="55">
         <v>43894</v>
       </c>
-      <c r="B239" s="61">
+      <c r="B239" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="C239" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D239" s="62" t="s">
+      <c r="D239" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="43"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="60">
+      <c r="A240" s="55">
         <v>44017</v>
       </c>
-      <c r="B240" s="61">
+      <c r="B240" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C240" s="42" t="s">
+      <c r="C240" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="62" t="s">
+      <c r="D240" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="E240" s="63"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="43"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="40"/>
     </row>
     <row r="241" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A241" s="65">
+      <c r="A241" s="60">
         <v>44118</v>
       </c>
-      <c r="B241" s="66">
+      <c r="B241" s="61">
         <v>1.17</v>
       </c>
       <c r="C241" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D241" s="106" t="s">
+      <c r="D241" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="E241" s="106"/>
-      <c r="F241" s="106"/>
-      <c r="G241" s="44"/>
+      <c r="E241" s="69"/>
+      <c r="F241" s="69"/>
+      <c r="G241" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
     <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="B178:B184"/>
     <mergeCell ref="C198:E198"/>
@@ -31759,12 +31937,35 @@
     <mergeCell ref="B205:B206"/>
     <mergeCell ref="C205:E205"/>
     <mergeCell ref="C206:E206"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31773,7 +31974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31787,18 +31988,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0D122794-33D0-4958-A179-FB3706E9A79D}">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
